--- a/senders.xlsx
+++ b/senders.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Code</t>
   </si>
@@ -28,13 +28,46 @@
     <t>Channel</t>
   </si>
   <si>
+    <t>Address2</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Pincode</t>
+  </si>
+  <si>
+    <t>GST</t>
+  </si>
+  <si>
     <t>MAIN</t>
   </si>
   <si>
+    <t>Hike Pasina</t>
+  </si>
+  <si>
     <t>Addr</t>
   </si>
   <si>
+    <t xml:space="preserve">Khasra No 124//2/1, 2/2, 9, 26, Pasina Khurd Road, </t>
+  </si>
+  <si>
+    <t>Panipat</t>
+  </si>
+  <si>
     <t>All</t>
+  </si>
+  <si>
+    <t>Sewah,Panipat 132108</t>
+  </si>
+  <si>
+    <t>Haryana</t>
+  </si>
+  <si>
+    <t>132106</t>
+  </si>
+  <si>
+    <t>06BEKPG1769P1ZX</t>
   </si>
 </sst>
 </file>
@@ -392,13 +425,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -411,19 +444,57 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
